--- a/data/Inventory.xlsx
+++ b/data/Inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sathw\Desktop\ML\Agents\ai-fulfillment-aisle-optimization\ai-fulfillment-aisle-optimization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F6DA83-123C-4C70-ABF6-558FF5E79FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91436128-D273-4A25-8AAF-B9B44024659C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>50</v>
